--- a/MyProject/src/main/java/com/LegacyApplication/Data/BTIS_Legacy_TestData.xlsx
+++ b/MyProject/src/main/java/com/LegacyApplication/Data/BTIS_Legacy_TestData.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5955" tabRatio="935" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5955" tabRatio="867" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Applicant_Information" sheetId="1" r:id="rId1"/>
-    <sheet name="General_Liability_RC" sheetId="2" r:id="rId2"/>
-    <sheet name="Optional_Coverages" sheetId="3" r:id="rId3"/>
-    <sheet name="Price_Indication" sheetId="4" r:id="rId4"/>
-    <sheet name="Common_Eligibility" sheetId="5" r:id="rId5"/>
-    <sheet name="Specific_Eligibility" sheetId="6" r:id="rId6"/>
-    <sheet name="Application_Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Submission_Data" sheetId="10" r:id="rId8"/>
+    <sheet name="Login_Info" sheetId="13" r:id="rId1"/>
+    <sheet name="Applicant_Information" sheetId="1" r:id="rId2"/>
+    <sheet name="General_Liability_RC" sheetId="2" r:id="rId3"/>
+    <sheet name="Optional_Coverages" sheetId="3" r:id="rId4"/>
+    <sheet name="Price_Indication" sheetId="4" r:id="rId5"/>
+    <sheet name="Common_Eligibility" sheetId="5" r:id="rId6"/>
+    <sheet name="Specific_Eligibility" sheetId="6" r:id="rId7"/>
+    <sheet name="Application_Data" sheetId="7" r:id="rId8"/>
+    <sheet name="Submission_Data" sheetId="10" r:id="rId9"/>
+    <sheet name="QAA_Rating_Info" sheetId="12" r:id="rId10"/>
+    <sheet name="Agency_Info_View" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="356">
   <si>
     <t>SubmissionID</t>
   </si>
@@ -153,9 +156,6 @@
     <t>1,000,000/2,000,000/1,000,000</t>
   </si>
   <si>
-    <t>91344-Carpentry - Commercial</t>
-  </si>
-  <si>
     <t>ASR Endorsement</t>
   </si>
   <si>
@@ -661,13 +661,451 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>test @ 1</t>
+  </si>
+  <si>
+    <t>916-772-9200</t>
+  </si>
+  <si>
+    <t>mbarron@btisinc.com</t>
+  </si>
+  <si>
+    <t>TE026</t>
+  </si>
+  <si>
+    <t>Sub Producer Code</t>
+  </si>
+  <si>
+    <t>ReviewLicenseNeeded</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Stop Gap Employers Liability</t>
+  </si>
+  <si>
+    <t>ManifestPro_Glpremium</t>
+  </si>
+  <si>
+    <t>$650.00</t>
+  </si>
+  <si>
+    <t>ManifestPro_WorkmanshipCoverage</t>
+  </si>
+  <si>
+    <t>ManifestPro_TotalGlPremium</t>
+  </si>
+  <si>
+    <t>ManifestPro_Policyfee</t>
+  </si>
+  <si>
+    <t>ManifestPro_TotalGlPolicy</t>
+  </si>
+  <si>
+    <t>OccurenceForm_GlPremium_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_GlPremium_withoutsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_Workmanship_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_Workmanship_withoutsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TotalGlPremium_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TotalGlPremium_withoutsunset</t>
+  </si>
+  <si>
+    <t>ManifestPro_TerrorismPremium</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TerrorismPremium_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TerrorismPremium_withoutsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_PolicyFee_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_PolicyFee_withoutsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TotalGlPolicy_withsunset</t>
+  </si>
+  <si>
+    <t>OccurenceForm_TotalGlPolicy_withoutsunset</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>$680.00</t>
+  </si>
+  <si>
+    <t>Not Covered</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t>$930.00</t>
+  </si>
+  <si>
+    <t>$750.00</t>
+  </si>
+  <si>
+    <t>$753.00</t>
+  </si>
+  <si>
+    <t>$780.00</t>
+  </si>
+  <si>
+    <t>$783.00</t>
+  </si>
+  <si>
+    <t>$1,030.00</t>
+  </si>
+  <si>
+    <t>$1,033.00</t>
+  </si>
+  <si>
+    <t>TotalGlPremium</t>
+  </si>
+  <si>
+    <t>Employee Benefits</t>
+  </si>
+  <si>
+    <t>PerProjAggregate</t>
+  </si>
+  <si>
+    <t>Earth Movement Exclusion</t>
+  </si>
+  <si>
+    <t>Stop Gap</t>
+  </si>
+  <si>
+    <t>Additional Insured</t>
+  </si>
+  <si>
+    <t>Workmanship Coverage</t>
+  </si>
+  <si>
+    <t>Extended Reporting Form</t>
+  </si>
+  <si>
+    <t>Sub Total GlPremium</t>
+  </si>
+  <si>
+    <t>Terrorism GL</t>
+  </si>
+  <si>
+    <t>Policy Fee</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Total Gl Policy Premium</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Submission Id</t>
+  </si>
+  <si>
+    <t>QAA01029797</t>
+  </si>
+  <si>
+    <t>test129331  Smith5</t>
+  </si>
+  <si>
+    <t>Wub331CA</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>1,000,000/2,000,000/2,000,000</t>
+  </si>
+  <si>
+    <t>91340 - Residential Remodeling</t>
+  </si>
+  <si>
+    <t>60+ days lapse in GL coverage</t>
+  </si>
+  <si>
+    <t>91387</t>
+  </si>
+  <si>
+    <t>004 - Los Angeles</t>
+  </si>
+  <si>
+    <t>85,680</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Agency_Name</t>
+  </si>
+  <si>
+    <t>BORCE TEST</t>
+  </si>
+  <si>
+    <t>Un Appointed</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agency Contact</t>
+  </si>
+  <si>
+    <t>Borce</t>
+  </si>
+  <si>
+    <t>borce@milesconsultingcorp.com</t>
+  </si>
+  <si>
+    <t>Federal Tax Id</t>
+  </si>
+  <si>
+    <t>Website Url</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>223-305-1111</t>
+  </si>
+  <si>
+    <t>Toll Free Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">License Number </t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Policy Number</t>
+  </si>
+  <si>
+    <t>Policy Expiration Date</t>
+  </si>
+  <si>
+    <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>bul.AVNOJ 84-2/14</t>
+  </si>
+  <si>
+    <t>Mailing City</t>
+  </si>
+  <si>
+    <t>SKOPJE</t>
+  </si>
+  <si>
+    <t>Mailing State</t>
+  </si>
+  <si>
+    <t>Mailing Zip</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Agency Address</t>
+  </si>
+  <si>
+    <t>Agency City</t>
+  </si>
+  <si>
+    <t>Agency State</t>
+  </si>
+  <si>
+    <t>Agency Zip</t>
+  </si>
+  <si>
+    <t>Agency Territory</t>
+  </si>
+  <si>
+    <t>- Select One</t>
+  </si>
+  <si>
+    <t>- Business Type</t>
+  </si>
+  <si>
+    <t>Priniciple Name1</t>
+  </si>
+  <si>
+    <t>Priniciple Email1</t>
+  </si>
+  <si>
+    <t>Priniciple Name2</t>
+  </si>
+  <si>
+    <t>Priniciple Email2</t>
+  </si>
+  <si>
+    <t>Priniciple Name3</t>
+  </si>
+  <si>
+    <t>Priniciple Email3</t>
+  </si>
+  <si>
+    <t>Priniciple Name4</t>
+  </si>
+  <si>
+    <t>Priniciple Email4</t>
+  </si>
+  <si>
+    <t>- Territory</t>
+  </si>
+  <si>
+    <t>QAA01074812</t>
+  </si>
+  <si>
+    <t>Gaetanoo  Randazzoo</t>
+  </si>
+  <si>
+    <t>We Can Do It</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>95765</t>
+  </si>
+  <si>
+    <t>2,500</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>25,000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>300,000/300,000/300,000</t>
+  </si>
+  <si>
+    <t>91340 - Carpentry - Residential</t>
+  </si>
+  <si>
+    <t>1 Year in business with no lapse in GL coverage and no losses</t>
+  </si>
+  <si>
+    <t>91342 - Carpentry - Commercial</t>
+  </si>
+  <si>
+    <t>$986.00</t>
+  </si>
+  <si>
+    <t>$96.00</t>
+  </si>
+  <si>
+    <t>$1,082.00</t>
+  </si>
+  <si>
+    <t>$1,332.00</t>
+  </si>
+  <si>
+    <t>$739.00</t>
+  </si>
+  <si>
+    <t>$835.00</t>
+  </si>
+  <si>
+    <t>$1,085.00</t>
+  </si>
+  <si>
+    <t>$838.00</t>
+  </si>
+  <si>
+    <t>$934.00</t>
+  </si>
+  <si>
+    <t>$1,184.00</t>
+  </si>
+  <si>
+    <t>71,420</t>
+  </si>
+  <si>
+    <t>$986</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>$1,082</t>
+  </si>
+  <si>
+    <t>$1,332</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>GIY0752</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>BPB8652</t>
+  </si>
+  <si>
+    <t>BCZ8105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,8 +1132,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +1163,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,10 +1203,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,35 +1218,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -808,8 +1248,42 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1088,106 +1562,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.42578125" style="3"/>
+    <col min="1" max="16384" width="26.5703125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43005</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3">
-        <v>95678</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1195,153 +1637,503 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="41.7109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="41.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="26.7109375" style="20"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="26.7109375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="58.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="57.140625" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="2" width="27.42578125" style="3"/>
+    <col min="3" max="3" width="38.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="27.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>26</v>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
+    <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>21420</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>28</v>
+        <v>43005</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>95678</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>150000</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>40</v>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>21420</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>150000</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1352,95 +2144,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="26.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="46.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="57.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="57.140625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>52</v>
+    <row r="1" spans="1:13" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>21420</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>150000</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>150000</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1451,79 +2380,473 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="31.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="47.85546875" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="39" style="16"/>
+    <col min="1" max="16384" width="47.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>63</v>
+      <c r="K1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
+    <row r="2" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>53</v>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -1531,12 +2854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1544,131 +2867,131 @@
     <col min="1" max="16384" width="18.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:42" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AN1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AN1" s="18" t="s">
-        <v>103</v>
-      </c>
     </row>
-    <row r="2" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1677,28 +3000,28 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>9</v>
@@ -1707,85 +3030,275 @@
         <v>9</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1794,12 +3307,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1807,132 +3320,132 @@
     <col min="1" max="16384" width="24" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:42" s="9" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AN1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AN1" s="18" t="s">
+      <c r="AO1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AP1" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,127 +3453,320 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AM2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2068,302 +3774,302 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="30.28515625" style="20"/>
-    <col min="24" max="24" width="44.28515625" style="20" customWidth="1"/>
-    <col min="25" max="25" width="44.42578125" style="20" customWidth="1"/>
-    <col min="26" max="27" width="30.28515625" style="20"/>
-    <col min="28" max="28" width="37.7109375" style="20" customWidth="1"/>
-    <col min="29" max="16384" width="30.28515625" style="20"/>
+    <col min="1" max="23" width="30.28515625" style="11"/>
+    <col min="24" max="24" width="44.28515625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="44.42578125" style="11" customWidth="1"/>
+    <col min="26" max="27" width="30.28515625" style="11"/>
+    <col min="28" max="28" width="37.7109375" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="30.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="19" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:46" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA1" s="19" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AJ1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AS1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AI1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AN1" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AT1" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA2" s="20" t="s">
+      <c r="W2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN2" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>53</v>
+      <c r="AB2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2372,107 +4078,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.5703125" style="21"/>
+    <col min="1" max="16384" width="27.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="13" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="D2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="21" t="s">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E3" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="21" t="s">
+      <c r="I3" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>